--- a/data/pca/factorExposure/factorExposure_2011-08-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-08-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,24 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +735,66 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>-0.02392426251306299</v>
+        <v>0.01830448136517587</v>
       </c>
       <c r="C2">
-        <v>0.01470142088926461</v>
+        <v>-0.007025554873095974</v>
       </c>
       <c r="D2">
-        <v>-0.03610604830809051</v>
+        <v>0.02670872033421166</v>
       </c>
       <c r="E2">
-        <v>-0.06667886981724379</v>
+        <v>0.03568302499261477</v>
       </c>
       <c r="F2">
-        <v>-0.01758079663978636</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.01633514753536739</v>
+      </c>
+      <c r="G2">
+        <v>0.0173465461989362</v>
+      </c>
+      <c r="H2">
+        <v>0.02675797646942196</v>
+      </c>
+      <c r="I2">
+        <v>0.03813938840357454</v>
+      </c>
+      <c r="J2">
+        <v>0.002881007905177611</v>
+      </c>
+      <c r="K2">
+        <v>-0.07284130932275509</v>
+      </c>
+      <c r="L2">
+        <v>0.01268743452791632</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +811,66 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>-0.0713078390235054</v>
+        <v>0.09278266718729847</v>
       </c>
       <c r="C4">
-        <v>0.05352090177903025</v>
+        <v>-0.06068775836023409</v>
       </c>
       <c r="D4">
-        <v>-0.04006603631968963</v>
+        <v>0.01202985955709004</v>
       </c>
       <c r="E4">
-        <v>-0.01957500014144739</v>
+        <v>0.05036041639178669</v>
       </c>
       <c r="F4">
-        <v>-0.03909094749630081</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.09366464368548247</v>
+      </c>
+      <c r="G4">
+        <v>0.03459058452439774</v>
+      </c>
+      <c r="H4">
+        <v>0.02104824265324519</v>
+      </c>
+      <c r="I4">
+        <v>-0.07273183289457638</v>
+      </c>
+      <c r="J4">
+        <v>0.01724115644215495</v>
+      </c>
+      <c r="K4">
+        <v>0.04314726705162376</v>
+      </c>
+      <c r="L4">
+        <v>-0.03265039435043619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +887,446 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>-0.1260530128807647</v>
+        <v>0.1310948593439497</v>
       </c>
       <c r="C6">
-        <v>0.02474491506252052</v>
+        <v>-0.03131824605809209</v>
       </c>
       <c r="D6">
-        <v>-0.03925902946492134</v>
+        <v>0.04597378318832203</v>
       </c>
       <c r="E6">
-        <v>-0.06991247138204197</v>
+        <v>0.01528014387996225</v>
       </c>
       <c r="F6">
-        <v>-0.05411221391432874</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.0701143288013976</v>
+      </c>
+      <c r="G6">
+        <v>0.04500920576647956</v>
+      </c>
+      <c r="H6">
+        <v>-0.1575313703691394</v>
+      </c>
+      <c r="I6">
+        <v>-0.03838728117707691</v>
+      </c>
+      <c r="J6">
+        <v>0.4272466583000911</v>
+      </c>
+      <c r="K6">
+        <v>0.1792827234319822</v>
+      </c>
+      <c r="L6">
+        <v>0.0528264503105761</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>-0.06432511505353204</v>
+        <v>0.06676107072915444</v>
       </c>
       <c r="C7">
-        <v>0.03374227083523746</v>
+        <v>-0.06002746810247505</v>
       </c>
       <c r="D7">
-        <v>-0.03666368572106995</v>
+        <v>0.03497879570589443</v>
       </c>
       <c r="E7">
-        <v>-0.05230432575251952</v>
+        <v>0.0371084692989203</v>
       </c>
       <c r="F7">
-        <v>-0.02176652995919531</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.03134698755485116</v>
+      </c>
+      <c r="G7">
+        <v>-0.005887836312432625</v>
+      </c>
+      <c r="H7">
+        <v>-0.0007932086124088549</v>
+      </c>
+      <c r="I7">
+        <v>-0.05068986934411494</v>
+      </c>
+      <c r="J7">
+        <v>-0.06995885270053816</v>
+      </c>
+      <c r="K7">
+        <v>-0.004355050929491186</v>
+      </c>
+      <c r="L7">
+        <v>-0.03991219797604087</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>-0.02656690654409833</v>
+        <v>0.03568991787704301</v>
       </c>
       <c r="C8">
-        <v>0.02761424957295003</v>
+        <v>-0.01167793311447562</v>
       </c>
       <c r="D8">
-        <v>-0.003697472361417214</v>
+        <v>-0.002827354502495014</v>
       </c>
       <c r="E8">
-        <v>-0.04473068352790032</v>
+        <v>0.07151839939213678</v>
       </c>
       <c r="F8">
-        <v>-0.06810557844349525</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.05580691474550675</v>
+      </c>
+      <c r="G8">
+        <v>0.05527304778126254</v>
+      </c>
+      <c r="H8">
+        <v>0.002030912038424829</v>
+      </c>
+      <c r="I8">
+        <v>-0.083841283932982</v>
+      </c>
+      <c r="J8">
+        <v>0.008826580782658014</v>
+      </c>
+      <c r="K8">
+        <v>0.05997873564995731</v>
+      </c>
+      <c r="L8">
+        <v>-0.01537509967375992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>-0.07554286556275727</v>
+        <v>0.0847060942129186</v>
       </c>
       <c r="C9">
-        <v>0.06314828234791361</v>
+        <v>-0.05791931530350405</v>
       </c>
       <c r="D9">
-        <v>-0.04291524922080695</v>
+        <v>0.0151199315965915</v>
       </c>
       <c r="E9">
-        <v>-0.02345621469862527</v>
+        <v>0.03753650263149116</v>
       </c>
       <c r="F9">
-        <v>-0.027023219641571</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.08122025182753456</v>
+      </c>
+      <c r="G9">
+        <v>0.04616147521361418</v>
+      </c>
+      <c r="H9">
+        <v>0.01539516901965282</v>
+      </c>
+      <c r="I9">
+        <v>-0.08579528092706552</v>
+      </c>
+      <c r="J9">
+        <v>0.005579211014799573</v>
+      </c>
+      <c r="K9">
+        <v>0.02349080745736574</v>
+      </c>
+      <c r="L9">
+        <v>-0.008018414004505356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>-0.03630461199019723</v>
+        <v>0.09118856834852444</v>
       </c>
       <c r="C10">
-        <v>-0.1347354985060831</v>
+        <v>0.1764800789097101</v>
       </c>
       <c r="D10">
-        <v>0.02824520568012817</v>
+        <v>0.006010584945683141</v>
       </c>
       <c r="E10">
-        <v>-0.06963611957794692</v>
+        <v>0.05588924048367257</v>
       </c>
       <c r="F10">
-        <v>-0.03437859375251651</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.0106074700528615</v>
+      </c>
+      <c r="G10">
+        <v>-0.04048778843498634</v>
+      </c>
+      <c r="H10">
+        <v>-0.02038678155339405</v>
+      </c>
+      <c r="I10">
+        <v>0.00957763099250902</v>
+      </c>
+      <c r="J10">
+        <v>-0.03987805185284107</v>
+      </c>
+      <c r="K10">
+        <v>-0.04155837349453258</v>
+      </c>
+      <c r="L10">
+        <v>-0.01271424987462971</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>-0.06908402918674419</v>
+        <v>0.06916058234117232</v>
       </c>
       <c r="C11">
-        <v>0.06425656280956363</v>
+        <v>-0.05835372275344287</v>
       </c>
       <c r="D11">
-        <v>-0.04972927257687113</v>
+        <v>0.0299674895627896</v>
       </c>
       <c r="E11">
-        <v>-0.03363459532754503</v>
+        <v>0.02358889252377948</v>
       </c>
       <c r="F11">
-        <v>0.007064477648483429</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.06173955838946227</v>
+      </c>
+      <c r="G11">
+        <v>0.06957971092224555</v>
+      </c>
+      <c r="H11">
+        <v>0.01395863440201797</v>
+      </c>
+      <c r="I11">
+        <v>-0.07803489161922748</v>
+      </c>
+      <c r="J11">
+        <v>-0.07881953533228768</v>
+      </c>
+      <c r="K11">
+        <v>-0.06870739123397901</v>
+      </c>
+      <c r="L11">
+        <v>0.03614676634951927</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>-0.06931468695102748</v>
+        <v>0.07147936651729966</v>
       </c>
       <c r="C12">
-        <v>0.04033434948439708</v>
+        <v>-0.05024941465051252</v>
       </c>
       <c r="D12">
-        <v>-0.03670833573732318</v>
+        <v>0.009587986363248556</v>
       </c>
       <c r="E12">
-        <v>-0.02198460304191336</v>
+        <v>0.02191407479269484</v>
       </c>
       <c r="F12">
-        <v>-0.01440086643355316</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.05571320523650729</v>
+      </c>
+      <c r="G12">
+        <v>0.06840667794137135</v>
+      </c>
+      <c r="H12">
+        <v>0.009170524664341848</v>
+      </c>
+      <c r="I12">
+        <v>-0.09808279385153117</v>
+      </c>
+      <c r="J12">
+        <v>-0.0602734166053788</v>
+      </c>
+      <c r="K12">
+        <v>-0.06750436565544249</v>
+      </c>
+      <c r="L12">
+        <v>-0.01308460535904925</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>-0.07783389150434361</v>
+        <v>0.06294375997550691</v>
       </c>
       <c r="C13">
-        <v>0.03285422855586047</v>
+        <v>-0.04109783066937409</v>
       </c>
       <c r="D13">
-        <v>-0.005759398646014683</v>
+        <v>-0.01758823029079147</v>
       </c>
       <c r="E13">
-        <v>-0.02615878464535886</v>
+        <v>0.03605541005081192</v>
       </c>
       <c r="F13">
-        <v>-0.02523864727911363</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.01209049787321045</v>
+      </c>
+      <c r="G13">
+        <v>0.03835049739589942</v>
+      </c>
+      <c r="H13">
+        <v>0.0146984727463859</v>
+      </c>
+      <c r="I13">
+        <v>-0.05828812219099988</v>
+      </c>
+      <c r="J13">
+        <v>-0.01943283588481691</v>
+      </c>
+      <c r="K13">
+        <v>0.05663811730768437</v>
+      </c>
+      <c r="L13">
+        <v>-0.0488456913882281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>-0.03490373709970303</v>
+        <v>0.04345894902500506</v>
       </c>
       <c r="C14">
-        <v>0.00328711669967776</v>
+        <v>-0.01612221535297591</v>
       </c>
       <c r="D14">
-        <v>-0.03956625155580198</v>
+        <v>0.01757054153839454</v>
       </c>
       <c r="E14">
-        <v>-0.007142825181376626</v>
+        <v>0.007540877393642505</v>
       </c>
       <c r="F14">
-        <v>-0.01609234352137782</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.05829180506707701</v>
+      </c>
+      <c r="G14">
+        <v>0.02364382724404715</v>
+      </c>
+      <c r="H14">
+        <v>0.04457333524241081</v>
+      </c>
+      <c r="I14">
+        <v>-0.06652503509768623</v>
+      </c>
+      <c r="J14">
+        <v>0.00464198670962594</v>
+      </c>
+      <c r="K14">
+        <v>0.04615191848613377</v>
+      </c>
+      <c r="L14">
+        <v>-0.007931406059226487</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>-0.04699391901618404</v>
+        <v>0.03847431750668156</v>
       </c>
       <c r="C15">
-        <v>0.009987266795995025</v>
+        <v>-0.01432349009405395</v>
       </c>
       <c r="D15">
-        <v>0.01042818227407197</v>
+        <v>-0.02258829089691686</v>
       </c>
       <c r="E15">
-        <v>-0.002284034370631564</v>
+        <v>0.005309858958670392</v>
       </c>
       <c r="F15">
-        <v>-0.025972226434254</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.01413273844687766</v>
+      </c>
+      <c r="G15">
+        <v>0.01277690027621774</v>
+      </c>
+      <c r="H15">
+        <v>0.0002324955929797316</v>
+      </c>
+      <c r="I15">
+        <v>-0.04109950306866358</v>
+      </c>
+      <c r="J15">
+        <v>0.002685863722223775</v>
+      </c>
+      <c r="K15">
+        <v>0.06424942460087506</v>
+      </c>
+      <c r="L15">
+        <v>-0.02501833614521278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>-0.05691965894743421</v>
+        <v>0.07025838994911238</v>
       </c>
       <c r="C16">
-        <v>0.06065827462072884</v>
+        <v>-0.06341978627226519</v>
       </c>
       <c r="D16">
-        <v>-0.04197414082069036</v>
+        <v>0.016940751326953</v>
       </c>
       <c r="E16">
-        <v>-0.01417980899675267</v>
+        <v>0.02749815867145488</v>
       </c>
       <c r="F16">
-        <v>-0.02163371393502858</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.07228995078940252</v>
+      </c>
+      <c r="G16">
+        <v>0.0454983701172249</v>
+      </c>
+      <c r="H16">
+        <v>0.01246578203113094</v>
+      </c>
+      <c r="I16">
+        <v>-0.08514613665029934</v>
+      </c>
+      <c r="J16">
+        <v>-0.0710878687334978</v>
+      </c>
+      <c r="K16">
+        <v>-0.05117697796999612</v>
+      </c>
+      <c r="L16">
+        <v>0.02270879695252874</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1343,28 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1381,28 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1419,294 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>-0.05632982960741659</v>
+        <v>0.05226331212065274</v>
       </c>
       <c r="C20">
-        <v>0.04753736169656307</v>
+        <v>-0.03807652757766059</v>
       </c>
       <c r="D20">
-        <v>-0.004616524871468547</v>
+        <v>0.01344359609309406</v>
       </c>
       <c r="E20">
-        <v>-0.02802392350151458</v>
+        <v>0.02287706303738389</v>
       </c>
       <c r="F20">
-        <v>-0.01229237640581478</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01496168662308332</v>
+      </c>
+      <c r="G20">
+        <v>0.05465458345739851</v>
+      </c>
+      <c r="H20">
+        <v>0.02947077597285497</v>
+      </c>
+      <c r="I20">
+        <v>-0.1138675471315369</v>
+      </c>
+      <c r="J20">
+        <v>-0.01976078533921261</v>
+      </c>
+      <c r="K20">
+        <v>-0.01263988682748119</v>
+      </c>
+      <c r="L20">
+        <v>-0.04550968263846211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>-0.03004280075955752</v>
+        <v>0.0268674851954319</v>
       </c>
       <c r="C21">
-        <v>0.03274108618350983</v>
+        <v>-0.01832986682612562</v>
       </c>
       <c r="D21">
-        <v>0.05153875978657871</v>
+        <v>-0.03418556802087532</v>
       </c>
       <c r="E21">
-        <v>-0.01018420310247289</v>
+        <v>0.0336114787770985</v>
       </c>
       <c r="F21">
-        <v>-0.06189747776562714</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.006231196160576684</v>
+      </c>
+      <c r="G21">
+        <v>0.02505173759342028</v>
+      </c>
+      <c r="H21">
+        <v>-0.07903395018829225</v>
+      </c>
+      <c r="I21">
+        <v>-0.06282036028744331</v>
+      </c>
+      <c r="J21">
+        <v>-0.001280848827907119</v>
+      </c>
+      <c r="K21">
+        <v>0.07503739450587819</v>
+      </c>
+      <c r="L21">
+        <v>-0.009126643053059056</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>-0.100532354505127</v>
+        <v>0.07998840592885752</v>
       </c>
       <c r="C22">
-        <v>0.1447680970661712</v>
+        <v>-0.09723043026169111</v>
       </c>
       <c r="D22">
-        <v>0.1491137224676207</v>
+        <v>-0.4695841411110855</v>
       </c>
       <c r="E22">
-        <v>0.04217108749207388</v>
+        <v>0.2898916684959018</v>
       </c>
       <c r="F22">
-        <v>-0.3908418744159506</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.1121309237569474</v>
+      </c>
+      <c r="G22">
+        <v>-0.310173721977716</v>
+      </c>
+      <c r="H22">
+        <v>-0.01375326939104859</v>
+      </c>
+      <c r="I22">
+        <v>0.1952092863922968</v>
+      </c>
+      <c r="J22">
+        <v>0.03941367957490534</v>
+      </c>
+      <c r="K22">
+        <v>-0.02667687257159002</v>
+      </c>
+      <c r="L22">
+        <v>-0.05618355273970205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>-0.1010471036545427</v>
+        <v>0.08065744502107675</v>
       </c>
       <c r="C23">
-        <v>0.14349209896632</v>
+        <v>-0.09732929365010713</v>
       </c>
       <c r="D23">
-        <v>0.1494754457836315</v>
+        <v>-0.4709706628269693</v>
       </c>
       <c r="E23">
-        <v>0.04140377537835994</v>
+        <v>0.2920555995297185</v>
       </c>
       <c r="F23">
-        <v>-0.3919868903336029</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.1151364967272937</v>
+      </c>
+      <c r="G23">
+        <v>-0.3066323290541827</v>
+      </c>
+      <c r="H23">
+        <v>-0.01321779539027823</v>
+      </c>
+      <c r="I23">
+        <v>0.1958768816883414</v>
+      </c>
+      <c r="J23">
+        <v>0.04446243210860546</v>
+      </c>
+      <c r="K23">
+        <v>-0.02597217089461032</v>
+      </c>
+      <c r="L23">
+        <v>-0.0531734996598101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>-0.07756141478069514</v>
+        <v>0.07781252395358884</v>
       </c>
       <c r="C24">
-        <v>0.05700850868973232</v>
+        <v>-0.06188201251041058</v>
       </c>
       <c r="D24">
-        <v>-0.0374875881339295</v>
+        <v>0.01132580494995877</v>
       </c>
       <c r="E24">
-        <v>-0.03722120218317308</v>
+        <v>0.03514458309846265</v>
       </c>
       <c r="F24">
-        <v>-0.03275043252599893</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.07148122141620522</v>
+      </c>
+      <c r="G24">
+        <v>0.06446112949574488</v>
+      </c>
+      <c r="H24">
+        <v>0.006324134800487875</v>
+      </c>
+      <c r="I24">
+        <v>-0.08078179409510475</v>
+      </c>
+      <c r="J24">
+        <v>-0.04706470440553347</v>
+      </c>
+      <c r="K24">
+        <v>-0.05850662436227093</v>
+      </c>
+      <c r="L24">
+        <v>0.01282162845374425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>-0.07328782486159492</v>
+        <v>0.07537159118275477</v>
       </c>
       <c r="C25">
-        <v>0.03393244038454493</v>
+        <v>-0.04025229622468401</v>
       </c>
       <c r="D25">
-        <v>-0.03930365084365808</v>
+        <v>0.01860036408838529</v>
       </c>
       <c r="E25">
-        <v>-0.04516565033234814</v>
+        <v>0.03452041129656407</v>
       </c>
       <c r="F25">
-        <v>-0.04992888089368829</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.07734199422988033</v>
+      </c>
+      <c r="G25">
+        <v>0.05814690331882148</v>
+      </c>
+      <c r="H25">
+        <v>0.02814775265767547</v>
+      </c>
+      <c r="I25">
+        <v>-0.0940796940720154</v>
+      </c>
+      <c r="J25">
+        <v>-0.04462818143083647</v>
+      </c>
+      <c r="K25">
+        <v>-0.08345965495319371</v>
+      </c>
+      <c r="L25">
+        <v>0.01794921390380858</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>-0.04929787683079315</v>
+        <v>0.04411921818065553</v>
       </c>
       <c r="C26">
-        <v>0.02515791076504662</v>
+        <v>-0.02319087657609239</v>
       </c>
       <c r="D26">
-        <v>-0.003134762795142136</v>
+        <v>-0.01902113330534813</v>
       </c>
       <c r="E26">
-        <v>-0.03660500873290781</v>
+        <v>0.0165431631717912</v>
       </c>
       <c r="F26">
-        <v>0.01129152950157456</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.008176358264457114</v>
+      </c>
+      <c r="G26">
+        <v>0.02651626892881858</v>
+      </c>
+      <c r="H26">
+        <v>0.007975222603509221</v>
+      </c>
+      <c r="I26">
+        <v>-0.05556788048383366</v>
+      </c>
+      <c r="J26">
+        <v>-0.03331590782069756</v>
+      </c>
+      <c r="K26">
+        <v>0.1138894280583509</v>
+      </c>
+      <c r="L26">
+        <v>-0.02140345998103741</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1723,370 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>-0.07528379689880102</v>
+        <v>0.11522176043744</v>
       </c>
       <c r="C28">
-        <v>-0.2989670651402603</v>
+        <v>0.2978359723003811</v>
       </c>
       <c r="D28">
-        <v>0.01968124271972853</v>
+        <v>-0.007521302497942361</v>
       </c>
       <c r="E28">
-        <v>-0.08468609240147404</v>
+        <v>0.03790335408296541</v>
       </c>
       <c r="F28">
-        <v>-0.01579352934477113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.004224261208845997</v>
+      </c>
+      <c r="G28">
+        <v>-0.009679945543410593</v>
+      </c>
+      <c r="H28">
+        <v>-0.03271752200416649</v>
+      </c>
+      <c r="I28">
+        <v>0.01554516883110361</v>
+      </c>
+      <c r="J28">
+        <v>-0.02308874528337625</v>
+      </c>
+      <c r="K28">
+        <v>0.05613224528645027</v>
+      </c>
+      <c r="L28">
+        <v>-0.01307891284929448</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>-0.04826247674149244</v>
+        <v>0.04747012960383776</v>
       </c>
       <c r="C29">
-        <v>0.002309703269832388</v>
+        <v>-0.01818014454712879</v>
       </c>
       <c r="D29">
-        <v>-0.0187036588488373</v>
+        <v>0.006272075902492093</v>
       </c>
       <c r="E29">
-        <v>-0.01095057754960452</v>
+        <v>0.02232948968797919</v>
       </c>
       <c r="F29">
-        <v>-0.03900497774903873</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.04272498085588691</v>
+      </c>
+      <c r="G29">
+        <v>0.02542487517685675</v>
+      </c>
+      <c r="H29">
+        <v>0.04593325566119405</v>
+      </c>
+      <c r="I29">
+        <v>-0.05018612956066017</v>
+      </c>
+      <c r="J29">
+        <v>0.0004475795110570378</v>
+      </c>
+      <c r="K29">
+        <v>0.0295517353403624</v>
+      </c>
+      <c r="L29">
+        <v>-0.01231798129406506</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>-0.1566244977965843</v>
+        <v>0.1232317764514636</v>
       </c>
       <c r="C30">
-        <v>0.09033505374864247</v>
+        <v>-0.07944852742390671</v>
       </c>
       <c r="D30">
-        <v>-0.061030601321291</v>
+        <v>-0.02608899794955697</v>
       </c>
       <c r="E30">
-        <v>-0.07533882376356901</v>
+        <v>0.09657456488207156</v>
       </c>
       <c r="F30">
-        <v>-0.08055975371476037</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.1172991265343831</v>
+      </c>
+      <c r="G30">
+        <v>0.09944097302715818</v>
+      </c>
+      <c r="H30">
+        <v>-0.03215359215406201</v>
+      </c>
+      <c r="I30">
+        <v>-0.1853777900496497</v>
+      </c>
+      <c r="J30">
+        <v>-0.002444090936894523</v>
+      </c>
+      <c r="K30">
+        <v>0.01949108004886807</v>
+      </c>
+      <c r="L30">
+        <v>-0.4615470770720234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>-0.05330294403586614</v>
+        <v>0.04123812015172478</v>
       </c>
       <c r="C31">
-        <v>0.01494262413528773</v>
+        <v>-0.04197995249445098</v>
       </c>
       <c r="D31">
-        <v>-0.02040780224979748</v>
+        <v>-0.008810344334756677</v>
       </c>
       <c r="E31">
-        <v>0.002826470987051371</v>
+        <v>-0.004335811703437117</v>
       </c>
       <c r="F31">
-        <v>-0.0009775914459239719</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.01147882970997535</v>
+      </c>
+      <c r="G31">
+        <v>0.002756638293661259</v>
+      </c>
+      <c r="H31">
+        <v>0.05133091682783177</v>
+      </c>
+      <c r="I31">
+        <v>-0.05132528654376691</v>
+      </c>
+      <c r="J31">
+        <v>0.006844774722989091</v>
+      </c>
+      <c r="K31">
+        <v>0.007662868536805932</v>
+      </c>
+      <c r="L31">
+        <v>-0.01725787161356491</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>-0.04898330134579579</v>
+        <v>0.05184201481203175</v>
       </c>
       <c r="C32">
-        <v>0.02995299036007419</v>
+        <v>-0.006599933064943462</v>
       </c>
       <c r="D32">
-        <v>0.01659346605467626</v>
+        <v>-0.04707190280151933</v>
       </c>
       <c r="E32">
-        <v>0.01143483281456659</v>
+        <v>0.03067073538523196</v>
       </c>
       <c r="F32">
-        <v>-0.06529366251269678</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.03499015031272401</v>
+      </c>
+      <c r="G32">
+        <v>0.005573559188732774</v>
+      </c>
+      <c r="H32">
+        <v>0.005116252057834304</v>
+      </c>
+      <c r="I32">
+        <v>-0.01698281083513085</v>
+      </c>
+      <c r="J32">
+        <v>-0.0455238115095391</v>
+      </c>
+      <c r="K32">
+        <v>0.09601726660657148</v>
+      </c>
+      <c r="L32">
+        <v>-0.0705579344837175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>-0.1024281263148505</v>
+        <v>0.1030000016300976</v>
       </c>
       <c r="C33">
-        <v>0.03678280262609398</v>
+        <v>-0.05647367199052344</v>
       </c>
       <c r="D33">
-        <v>-0.0483135942427223</v>
+        <v>-0.008320375038816807</v>
       </c>
       <c r="E33">
-        <v>-0.01446698980255871</v>
+        <v>-0.007089113646301814</v>
       </c>
       <c r="F33">
-        <v>-0.005638582621579309</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.05571446876395358</v>
+      </c>
+      <c r="G33">
+        <v>0.03215540837423913</v>
+      </c>
+      <c r="H33">
+        <v>0.04585237728500774</v>
+      </c>
+      <c r="I33">
+        <v>-0.06766607334591515</v>
+      </c>
+      <c r="J33">
+        <v>0.007372216509183857</v>
+      </c>
+      <c r="K33">
+        <v>0.03035983667102104</v>
+      </c>
+      <c r="L33">
+        <v>-0.01189863941211152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>-0.05888191001143961</v>
+        <v>0.06342824151586918</v>
       </c>
       <c r="C34">
-        <v>0.05866407402930736</v>
+        <v>-0.05082294985804373</v>
       </c>
       <c r="D34">
-        <v>-0.02267625691673523</v>
+        <v>0.016386471618201</v>
       </c>
       <c r="E34">
-        <v>-0.01778395064029963</v>
+        <v>0.01846432118077913</v>
       </c>
       <c r="F34">
-        <v>-0.0377162789924375</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.05523246727237112</v>
+      </c>
+      <c r="G34">
+        <v>0.0573978680467187</v>
+      </c>
+      <c r="H34">
+        <v>0.02729818490868521</v>
+      </c>
+      <c r="I34">
+        <v>-0.07872561677390845</v>
+      </c>
+      <c r="J34">
+        <v>-0.03972393678067927</v>
+      </c>
+      <c r="K34">
+        <v>-0.06389783745962656</v>
+      </c>
+      <c r="L34">
+        <v>0.04647529078214564</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>-0.0421570146393969</v>
+        <v>0.03396641879753286</v>
       </c>
       <c r="C35">
-        <v>0.01481474408438265</v>
+        <v>-0.02135786610440672</v>
       </c>
       <c r="D35">
-        <v>-0.009745056822297277</v>
+        <v>-0.001569988809193821</v>
       </c>
       <c r="E35">
-        <v>-0.001902811467626327</v>
+        <v>-0.002121066407652914</v>
       </c>
       <c r="F35">
-        <v>-0.01233252207766927</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0.0145815598088715</v>
+      </c>
+      <c r="G35">
+        <v>-0.001579268668074318</v>
+      </c>
+      <c r="H35">
+        <v>0.02303530145469833</v>
+      </c>
+      <c r="I35">
+        <v>-0.07427300183400393</v>
+      </c>
+      <c r="J35">
+        <v>-0.02788691632171165</v>
+      </c>
+      <c r="K35">
+        <v>-0.0148402492397205</v>
+      </c>
+      <c r="L35">
+        <v>-0.03399796959970877</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>-0.0366884315970409</v>
+        <v>0.03280011677152467</v>
       </c>
       <c r="C36">
-        <v>0.01563740050390882</v>
+        <v>-0.01557821979161196</v>
       </c>
       <c r="D36">
-        <v>-0.006685987120412005</v>
+        <v>-0.009348822917773003</v>
       </c>
       <c r="E36">
-        <v>-0.0322301084466273</v>
+        <v>0.02744993881843715</v>
       </c>
       <c r="F36">
-        <v>-0.02770033783824377</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.02682979290496096</v>
+      </c>
+      <c r="G36">
+        <v>0.03292832227674262</v>
+      </c>
+      <c r="H36">
+        <v>0.01705618550095989</v>
+      </c>
+      <c r="I36">
+        <v>-0.06798342607983877</v>
+      </c>
+      <c r="J36">
+        <v>0.0006155918024312682</v>
+      </c>
+      <c r="K36">
+        <v>0.02100682008658669</v>
+      </c>
+      <c r="L36">
+        <v>-0.01571354928984604</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +2103,180 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>-0.06143287834798927</v>
+        <v>0.04674910549547831</v>
       </c>
       <c r="C38">
-        <v>0.03294031504468053</v>
+        <v>-0.05102033108286384</v>
       </c>
       <c r="D38">
-        <v>0.006539731343010376</v>
+        <v>-0.01763320207409977</v>
       </c>
       <c r="E38">
-        <v>0.0190876809304607</v>
+        <v>0.01463780454429768</v>
       </c>
       <c r="F38">
-        <v>-0.07291494512763998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.007228389944071927</v>
+      </c>
+      <c r="G38">
+        <v>-0.01423456722573953</v>
+      </c>
+      <c r="H38">
+        <v>0.01067148259295715</v>
+      </c>
+      <c r="I38">
+        <v>0.1194586105558543</v>
+      </c>
+      <c r="J38">
+        <v>-0.0413800082023536</v>
+      </c>
+      <c r="K38">
+        <v>0.0937530312856738</v>
+      </c>
+      <c r="L38">
+        <v>-0.04176768949323876</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>-0.09359127206321001</v>
+        <v>0.09443704970734759</v>
       </c>
       <c r="C39">
-        <v>0.06299380752969827</v>
+        <v>-0.06290446286680458</v>
       </c>
       <c r="D39">
-        <v>-0.06196684927206816</v>
+        <v>0.009907259854313901</v>
       </c>
       <c r="E39">
-        <v>-0.00597805653813817</v>
+        <v>0.02547360293344846</v>
       </c>
       <c r="F39">
-        <v>-0.03316795941213197</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.0788197697620531</v>
+      </c>
+      <c r="G39">
+        <v>0.05440528071261928</v>
+      </c>
+      <c r="H39">
+        <v>0.01292998489886546</v>
+      </c>
+      <c r="I39">
+        <v>-0.09802527955999459</v>
+      </c>
+      <c r="J39">
+        <v>-0.1247431518879915</v>
+      </c>
+      <c r="K39">
+        <v>-0.1003946016521792</v>
+      </c>
+      <c r="L39">
+        <v>-0.08284614838351997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>-0.09428785602321815</v>
+        <v>0.052278932202299</v>
       </c>
       <c r="C40">
-        <v>0.05215837628373252</v>
+        <v>-0.06890091382081942</v>
       </c>
       <c r="D40">
-        <v>-0.01340831336187595</v>
+        <v>-0.07276266162185627</v>
       </c>
       <c r="E40">
-        <v>-0.01967123725861334</v>
+        <v>0.0374331609459</v>
       </c>
       <c r="F40">
-        <v>-0.2032067404987682</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.06943974924972325</v>
+      </c>
+      <c r="G40">
+        <v>0.1103622343608013</v>
+      </c>
+      <c r="H40">
+        <v>-0.05847465698323127</v>
+      </c>
+      <c r="I40">
+        <v>-0.0483871220722892</v>
+      </c>
+      <c r="J40">
+        <v>-0.10324409670186</v>
+      </c>
+      <c r="K40">
+        <v>0.0003435215717849475</v>
+      </c>
+      <c r="L40">
+        <v>-0.09858406348924388</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>-0.06136613235705457</v>
+        <v>0.04448635027949192</v>
       </c>
       <c r="C41">
-        <v>0.05326075412356523</v>
+        <v>-0.03907255208008838</v>
       </c>
       <c r="D41">
-        <v>-0.02689088468191526</v>
+        <v>0.01753218485110379</v>
       </c>
       <c r="E41">
-        <v>0.005394601600771017</v>
+        <v>-0.01440976931264873</v>
       </c>
       <c r="F41">
-        <v>-0.000781277851785046</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.002157311046854445</v>
+      </c>
+      <c r="G41">
+        <v>0.03286573895793764</v>
+      </c>
+      <c r="H41">
+        <v>0.03098776647936569</v>
+      </c>
+      <c r="I41">
+        <v>-0.01434674121337315</v>
+      </c>
+      <c r="J41">
+        <v>-0.0390806578484157</v>
+      </c>
+      <c r="K41">
+        <v>0.01411612633512746</v>
+      </c>
+      <c r="L41">
+        <v>-0.02518123332719697</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2293,104 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>-0.0597694659660602</v>
+        <v>0.05613343661610082</v>
       </c>
       <c r="C43">
-        <v>0.03283467124235996</v>
+        <v>-0.04632421986733781</v>
       </c>
       <c r="D43">
-        <v>-0.01467184320970162</v>
+        <v>0.005562970756651329</v>
       </c>
       <c r="E43">
-        <v>-0.01650087390258508</v>
+        <v>0.01614601343677841</v>
       </c>
       <c r="F43">
-        <v>9.472129866193307e-05</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.007679358443315871</v>
+      </c>
+      <c r="G43">
+        <v>0.01560828605122246</v>
+      </c>
+      <c r="H43">
+        <v>0.05273081025950502</v>
+      </c>
+      <c r="I43">
+        <v>-0.0180904018838779</v>
+      </c>
+      <c r="J43">
+        <v>-0.02087453279899454</v>
+      </c>
+      <c r="K43">
+        <v>-0.003073768714375312</v>
+      </c>
+      <c r="L43">
+        <v>0.005475243785736124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>-0.0757387497624815</v>
+        <v>0.08463610080180416</v>
       </c>
       <c r="C44">
-        <v>0.03647386049044719</v>
+        <v>-0.05198036950596985</v>
       </c>
       <c r="D44">
-        <v>0.02559226872713408</v>
+        <v>-0.01530317454239323</v>
       </c>
       <c r="E44">
-        <v>-0.0838118215334597</v>
+        <v>0.1228401507020587</v>
       </c>
       <c r="F44">
-        <v>-0.1247504784788793</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.06528185633009941</v>
+      </c>
+      <c r="G44">
+        <v>0.08372567537927948</v>
+      </c>
+      <c r="H44">
+        <v>0.04309577824980979</v>
+      </c>
+      <c r="I44">
+        <v>-0.1112372017098588</v>
+      </c>
+      <c r="J44">
+        <v>-0.05054336157850552</v>
+      </c>
+      <c r="K44">
+        <v>-0.04053781383164327</v>
+      </c>
+      <c r="L44">
+        <v>0.01125063599207502</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2407,256 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>-0.02499243891082538</v>
+        <v>0.04347098612148574</v>
       </c>
       <c r="C46">
-        <v>0.03024801243546159</v>
+        <v>-0.03499302277501851</v>
       </c>
       <c r="D46">
-        <v>-0.003796178710481574</v>
+        <v>0.001338475643912533</v>
       </c>
       <c r="E46">
-        <v>-0.01676730462906871</v>
+        <v>0.03259241905138961</v>
       </c>
       <c r="F46">
-        <v>-0.04744813723685746</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.0400569977271141</v>
+      </c>
+      <c r="G46">
+        <v>0.007847018734523948</v>
+      </c>
+      <c r="H46">
+        <v>0.023399764711259</v>
+      </c>
+      <c r="I46">
+        <v>-0.04693508300584738</v>
+      </c>
+      <c r="J46">
+        <v>-0.003184152877103027</v>
+      </c>
+      <c r="K46">
+        <v>0.07110370677233294</v>
+      </c>
+      <c r="L46">
+        <v>0.01564589214695608</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>-0.03865059422984379</v>
+        <v>0.04672504195502456</v>
       </c>
       <c r="C47">
-        <v>-0.001403530681009446</v>
+        <v>-0.0214364877691437</v>
       </c>
       <c r="D47">
-        <v>0.01081218083777308</v>
+        <v>-0.02317774280960031</v>
       </c>
       <c r="E47">
-        <v>-0.01031772736521384</v>
+        <v>0.0136836600656455</v>
       </c>
       <c r="F47">
-        <v>-0.06513993034356594</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.02255102020174431</v>
+      </c>
+      <c r="G47">
+        <v>0.005781649411026129</v>
+      </c>
+      <c r="H47">
+        <v>0.03711202255672943</v>
+      </c>
+      <c r="I47">
+        <v>-0.03335794943082373</v>
+      </c>
+      <c r="J47">
+        <v>0.03386539979103733</v>
+      </c>
+      <c r="K47">
+        <v>-0.006006853309430623</v>
+      </c>
+      <c r="L47">
+        <v>-0.002111763134783692</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>-0.04378153453323847</v>
+        <v>0.04371300675962148</v>
       </c>
       <c r="C48">
-        <v>0.0261592299892063</v>
+        <v>-0.0173108262235917</v>
       </c>
       <c r="D48">
-        <v>-0.002924319618181244</v>
+        <v>-0.02376929372031818</v>
       </c>
       <c r="E48">
-        <v>-0.01911567852750346</v>
+        <v>0.02008535068941645</v>
       </c>
       <c r="F48">
-        <v>-0.04737258985223344</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.0255799473995214</v>
+      </c>
+      <c r="G48">
+        <v>0.01471752734722654</v>
+      </c>
+      <c r="H48">
+        <v>-0.008876046070799743</v>
+      </c>
+      <c r="I48">
+        <v>-0.07302641412006443</v>
+      </c>
+      <c r="J48">
+        <v>-0.001700614913546549</v>
+      </c>
+      <c r="K48">
+        <v>0.005251749416725901</v>
+      </c>
+      <c r="L48">
+        <v>-0.03435417544163723</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>-0.1519296556728165</v>
+        <v>0.2090423349948816</v>
       </c>
       <c r="C49">
-        <v>0.04387575879228314</v>
+        <v>-0.03851237689795772</v>
       </c>
       <c r="D49">
-        <v>-0.1270828486732708</v>
+        <v>0.1737703695070004</v>
       </c>
       <c r="E49">
-        <v>-0.03594658727207668</v>
+        <v>-0.05433081796042739</v>
       </c>
       <c r="F49">
-        <v>0.1042916495934091</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.006657017038082413</v>
+      </c>
+      <c r="G49">
+        <v>-0.2044506632111043</v>
+      </c>
+      <c r="H49">
+        <v>-0.1920066442276697</v>
+      </c>
+      <c r="I49">
+        <v>0.06976440244892203</v>
+      </c>
+      <c r="J49">
+        <v>-0.1209693545342305</v>
+      </c>
+      <c r="K49">
+        <v>-0.1189555652046734</v>
+      </c>
+      <c r="L49">
+        <v>0.1562037968767725</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>-0.06192211631145472</v>
+        <v>0.05052961272719765</v>
       </c>
       <c r="C50">
-        <v>0.02130074146648804</v>
+        <v>-0.0406278331640957</v>
       </c>
       <c r="D50">
-        <v>-0.02508887119348141</v>
+        <v>-0.008026957377863842</v>
       </c>
       <c r="E50">
-        <v>0.001401352036096288</v>
+        <v>-0.007026181867184879</v>
       </c>
       <c r="F50">
-        <v>-0.02371605716445042</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.03518644478241896</v>
+      </c>
+      <c r="G50">
+        <v>0.01775824059590755</v>
+      </c>
+      <c r="H50">
+        <v>0.05478310408456864</v>
+      </c>
+      <c r="I50">
+        <v>-0.0338634268485015</v>
+      </c>
+      <c r="J50">
+        <v>0.0310131330232455</v>
+      </c>
+      <c r="K50">
+        <v>0.02339546148305462</v>
+      </c>
+      <c r="L50">
+        <v>-0.03615220179953041</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>-0.04099391100406386</v>
+        <v>0.04025662455783522</v>
       </c>
       <c r="C51">
-        <v>0.008447344038806957</v>
+        <v>-0.008196336394323938</v>
       </c>
       <c r="D51">
-        <v>0.006768525244492408</v>
+        <v>0.003769266539575613</v>
       </c>
       <c r="E51">
-        <v>-0.0005645879034854773</v>
+        <v>0.01632115620008468</v>
       </c>
       <c r="F51">
-        <v>-0.01095155972368806</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.03641614671816106</v>
+      </c>
+      <c r="G51">
+        <v>-0.001845363999704307</v>
+      </c>
+      <c r="H51">
+        <v>-0.01199093955614075</v>
+      </c>
+      <c r="I51">
+        <v>0.008429130885686038</v>
+      </c>
+      <c r="J51">
+        <v>-0.01575453927807437</v>
+      </c>
+      <c r="K51">
+        <v>-0.06324953655867799</v>
+      </c>
+      <c r="L51">
+        <v>0.04660982551792474</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2673,180 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>-0.1520892179313382</v>
+        <v>0.1519362644017221</v>
       </c>
       <c r="C53">
-        <v>-0.01423982244525657</v>
+        <v>-0.0341783674533786</v>
       </c>
       <c r="D53">
-        <v>-0.07976202300390552</v>
+        <v>0.05943066768909475</v>
       </c>
       <c r="E53">
-        <v>-0.008439860593246867</v>
+        <v>-0.04003537806769849</v>
       </c>
       <c r="F53">
-        <v>0.06983434726310379</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.001802650254706653</v>
+      </c>
+      <c r="G53">
+        <v>-0.03323635097312445</v>
+      </c>
+      <c r="H53">
+        <v>0.2410258346940656</v>
+      </c>
+      <c r="I53">
+        <v>0.09554169825508672</v>
+      </c>
+      <c r="J53">
+        <v>0.05900497856302159</v>
+      </c>
+      <c r="K53">
+        <v>0.00517229880588616</v>
+      </c>
+      <c r="L53">
+        <v>0.03639876931290032</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>-0.05870539706079068</v>
+        <v>0.05956086222881783</v>
       </c>
       <c r="C54">
-        <v>0.02665390123278911</v>
+        <v>-0.02041232507661698</v>
       </c>
       <c r="D54">
-        <v>0.0308838158781579</v>
+        <v>-0.0256748181753337</v>
       </c>
       <c r="E54">
-        <v>-0.04022029516370085</v>
+        <v>0.04794266089428811</v>
       </c>
       <c r="F54">
-        <v>-0.04577455712613974</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.0417246488760481</v>
+      </c>
+      <c r="G54">
+        <v>0.08131274378593344</v>
+      </c>
+      <c r="H54">
+        <v>0.01941672514182703</v>
+      </c>
+      <c r="I54">
+        <v>-0.1133270449540959</v>
+      </c>
+      <c r="J54">
+        <v>0.01208050769227027</v>
+      </c>
+      <c r="K54">
+        <v>0.05021367572677857</v>
+      </c>
+      <c r="L54">
+        <v>-0.0297361893482547</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>-0.08781797639172462</v>
+        <v>0.09056956201217817</v>
       </c>
       <c r="C55">
-        <v>-0.01240288733388867</v>
+        <v>-0.02859113942519082</v>
       </c>
       <c r="D55">
-        <v>-0.05629332635795811</v>
+        <v>0.04745772294991235</v>
       </c>
       <c r="E55">
-        <v>-0.02240828401323869</v>
+        <v>-0.005312386099855919</v>
       </c>
       <c r="F55">
-        <v>-0.007740584432970809</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.02625591854747916</v>
+      </c>
+      <c r="G55">
+        <v>0.01849212212272686</v>
+      </c>
+      <c r="H55">
+        <v>0.1667484807108991</v>
+      </c>
+      <c r="I55">
+        <v>0.01702579039983691</v>
+      </c>
+      <c r="J55">
+        <v>0.02833551155109663</v>
+      </c>
+      <c r="K55">
+        <v>-0.002449970676460458</v>
+      </c>
+      <c r="L55">
+        <v>0.060952253074624</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>-0.1509525715688675</v>
+        <v>0.1464053075136075</v>
       </c>
       <c r="C56">
-        <v>-0.02093315237772259</v>
+        <v>-0.05174721595093482</v>
       </c>
       <c r="D56">
-        <v>-0.09767758203759504</v>
+        <v>0.06121594106831402</v>
       </c>
       <c r="E56">
-        <v>-0.04746458944945878</v>
+        <v>-0.01605457064077453</v>
       </c>
       <c r="F56">
-        <v>0.06745492771248403</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.01071828860055221</v>
+      </c>
+      <c r="G56">
+        <v>-0.01373240029996476</v>
+      </c>
+      <c r="H56">
+        <v>0.246453130541075</v>
+      </c>
+      <c r="I56">
+        <v>0.118025776217024</v>
+      </c>
+      <c r="J56">
+        <v>0.0433901958842474</v>
+      </c>
+      <c r="K56">
+        <v>0.007342016569656318</v>
+      </c>
+      <c r="L56">
+        <v>-0.004664098942892992</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,770 +2863,1472 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>-0.1111738225854924</v>
+        <v>0.06942892784556727</v>
       </c>
       <c r="C58">
-        <v>0.06531593309469626</v>
+        <v>-0.0454629419196147</v>
       </c>
       <c r="D58">
-        <v>0.2874684309504263</v>
+        <v>-0.1530071315990623</v>
       </c>
       <c r="E58">
-        <v>-0.1075497050352541</v>
+        <v>0.1152049359783977</v>
       </c>
       <c r="F58">
-        <v>-0.2054713228859242</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.2304599425226813</v>
+      </c>
+      <c r="G58">
+        <v>0.02594554046260206</v>
+      </c>
+      <c r="H58">
+        <v>-0.1280145560096086</v>
+      </c>
+      <c r="I58">
+        <v>-0.4299200656782467</v>
+      </c>
+      <c r="J58">
+        <v>0.1758962847146755</v>
+      </c>
+      <c r="K58">
+        <v>-0.3890523177357757</v>
+      </c>
+      <c r="L58">
+        <v>-0.1002950223547177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>-0.1856489023983908</v>
+        <v>0.2038373254720777</v>
       </c>
       <c r="C59">
-        <v>-0.4259077609831394</v>
+        <v>0.3241477536176153</v>
       </c>
       <c r="D59">
-        <v>0.05559518930229246</v>
+        <v>-0.01014112049140919</v>
       </c>
       <c r="E59">
-        <v>-0.09888832933164141</v>
+        <v>0.02042370077097794</v>
       </c>
       <c r="F59">
-        <v>-0.059507380020988</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.04494697405345052</v>
+      </c>
+      <c r="G59">
+        <v>0.04524318230936566</v>
+      </c>
+      <c r="H59">
+        <v>0.06712243127813873</v>
+      </c>
+      <c r="I59">
+        <v>0.06497378218879837</v>
+      </c>
+      <c r="J59">
+        <v>-0.03898085337213852</v>
+      </c>
+      <c r="K59">
+        <v>-0.01074830807040587</v>
+      </c>
+      <c r="L59">
+        <v>0.02012086781170589</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>-0.2326460342866662</v>
+        <v>0.2453086659387399</v>
       </c>
       <c r="C60">
-        <v>0.0182844443855194</v>
+        <v>-0.07945909208509455</v>
       </c>
       <c r="D60">
-        <v>-0.1071687219566185</v>
+        <v>0.1326288118917556</v>
       </c>
       <c r="E60">
-        <v>-0.07208588999268825</v>
+        <v>-0.01944050083279752</v>
       </c>
       <c r="F60">
-        <v>0.01541585058553021</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.006025319504061595</v>
+      </c>
+      <c r="G60">
+        <v>-0.05038347999887319</v>
+      </c>
+      <c r="H60">
+        <v>-0.0804716374164961</v>
+      </c>
+      <c r="I60">
+        <v>0.1378354478950676</v>
+      </c>
+      <c r="J60">
+        <v>0.1393082686667309</v>
+      </c>
+      <c r="K60">
+        <v>-0.03635197207691744</v>
+      </c>
+      <c r="L60">
+        <v>0.06560443119327283</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>-0.07594099290744707</v>
+        <v>0.08433425306208182</v>
       </c>
       <c r="C61">
-        <v>0.0375094956197406</v>
+        <v>-0.04584608104123301</v>
       </c>
       <c r="D61">
-        <v>-0.04615662371056759</v>
+        <v>0.02183462029774544</v>
       </c>
       <c r="E61">
-        <v>-0.008879590791313502</v>
+        <v>0.02443948912094742</v>
       </c>
       <c r="F61">
-        <v>-0.01050822755180904</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.05944318410708628</v>
+      </c>
+      <c r="G61">
+        <v>0.06143978158503286</v>
+      </c>
+      <c r="H61">
+        <v>0.05717048102090228</v>
+      </c>
+      <c r="I61">
+        <v>-0.05362464101352962</v>
+      </c>
+      <c r="J61">
+        <v>-0.07760098378636694</v>
+      </c>
+      <c r="K61">
+        <v>-0.04291919627526392</v>
+      </c>
+      <c r="L61">
+        <v>-0.02332375703308652</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>-0.154977061812085</v>
+        <v>0.1474678613723894</v>
       </c>
       <c r="C62">
-        <v>-0.001351103741583907</v>
+        <v>-0.05405358272067028</v>
       </c>
       <c r="D62">
-        <v>-0.06462110036926839</v>
+        <v>0.05311450387074821</v>
       </c>
       <c r="E62">
-        <v>0.009207305390531028</v>
+        <v>-0.0621380262535034</v>
       </c>
       <c r="F62">
-        <v>0.1193920737647375</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>-0.007674719237020693</v>
+      </c>
+      <c r="G62">
+        <v>0.01114716501800524</v>
+      </c>
+      <c r="H62">
+        <v>0.2165499119304361</v>
+      </c>
+      <c r="I62">
+        <v>0.08674581970087435</v>
+      </c>
+      <c r="J62">
+        <v>0.06667587797520888</v>
+      </c>
+      <c r="K62">
+        <v>0.04583002669200552</v>
+      </c>
+      <c r="L62">
+        <v>0.05074942158441918</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>-0.05538523364928837</v>
+        <v>0.04851855266720202</v>
       </c>
       <c r="C63">
-        <v>0.04394384163823294</v>
+        <v>-0.02867104063294005</v>
       </c>
       <c r="D63">
-        <v>-0.0189722257726477</v>
+        <v>-0.005408507211385243</v>
       </c>
       <c r="E63">
-        <v>-0.01045508841662469</v>
+        <v>-0.001276574345096862</v>
       </c>
       <c r="F63">
-        <v>-0.007540714156363318</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.03821883681681459</v>
+      </c>
+      <c r="G63">
+        <v>0.04313666283489596</v>
+      </c>
+      <c r="H63">
+        <v>0.01287305890566799</v>
+      </c>
+      <c r="I63">
+        <v>-0.06394795667259426</v>
+      </c>
+      <c r="J63">
+        <v>0.0209524735909094</v>
+      </c>
+      <c r="K63">
+        <v>0.01411648167732782</v>
+      </c>
+      <c r="L63">
+        <v>-0.02490121410413315</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>-0.100236923361563</v>
+        <v>0.1027569821960812</v>
       </c>
       <c r="C64">
-        <v>0.01099099798564266</v>
+        <v>-0.03248270120962649</v>
       </c>
       <c r="D64">
-        <v>-0.03633900141691825</v>
+        <v>0.0251379155436251</v>
       </c>
       <c r="E64">
-        <v>-0.03294984175745486</v>
+        <v>0.0391281017784322</v>
       </c>
       <c r="F64">
-        <v>-0.04701662379791535</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.07427877844064038</v>
+      </c>
+      <c r="G64">
+        <v>0.03524845909646541</v>
+      </c>
+      <c r="H64">
+        <v>-0.01771652011473791</v>
+      </c>
+      <c r="I64">
+        <v>-0.03208382934440786</v>
+      </c>
+      <c r="J64">
+        <v>-0.03335377317837272</v>
+      </c>
+      <c r="K64">
+        <v>-0.02384763731998956</v>
+      </c>
+      <c r="L64">
+        <v>-0.05372262059989517</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>-0.1087895890908217</v>
+        <v>0.1261666092570661</v>
       </c>
       <c r="C65">
-        <v>0.02413079897909908</v>
+        <v>-0.02385316120525617</v>
       </c>
       <c r="D65">
-        <v>-0.01287305175542992</v>
+        <v>0.03763866226650017</v>
       </c>
       <c r="E65">
-        <v>-0.03852102038493778</v>
+        <v>-0.01220392840453445</v>
       </c>
       <c r="F65">
-        <v>-0.1025864754539568</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.08153308575759663</v>
+      </c>
+      <c r="G65">
+        <v>0.05016927416298302</v>
+      </c>
+      <c r="H65">
+        <v>-0.1763017022816362</v>
+      </c>
+      <c r="I65">
+        <v>-0.1045003254900507</v>
+      </c>
+      <c r="J65">
+        <v>0.6640589711455777</v>
+      </c>
+      <c r="K65">
+        <v>0.1796188794087322</v>
+      </c>
+      <c r="L65">
+        <v>0.05673230525080617</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>-0.1545878626791881</v>
+        <v>0.1331996863961501</v>
       </c>
       <c r="C66">
-        <v>0.09456566090625289</v>
+        <v>-0.1093603775657593</v>
       </c>
       <c r="D66">
-        <v>-0.1079912135632395</v>
+        <v>0.02080523049620846</v>
       </c>
       <c r="E66">
-        <v>-0.02909566484320183</v>
+        <v>0.01176856321940389</v>
       </c>
       <c r="F66">
-        <v>0.0056295870726345</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.09641919378766223</v>
+      </c>
+      <c r="G66">
+        <v>0.07114003655910586</v>
+      </c>
+      <c r="H66">
+        <v>0.03559458215637386</v>
+      </c>
+      <c r="I66">
+        <v>-0.08660583730767965</v>
+      </c>
+      <c r="J66">
+        <v>-0.2058582421691705</v>
+      </c>
+      <c r="K66">
+        <v>-0.08162590407436675</v>
+      </c>
+      <c r="L66">
+        <v>-0.09619069189214519</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>-0.09362033530504724</v>
+        <v>0.09393649446871667</v>
       </c>
       <c r="C67">
-        <v>0.04128465366830326</v>
+        <v>-0.06304878772071658</v>
       </c>
       <c r="D67">
-        <v>-0.004921740838217982</v>
+        <v>0.007088984971702058</v>
       </c>
       <c r="E67">
-        <v>-0.00871140164914058</v>
+        <v>0.03465919828391506</v>
       </c>
       <c r="F67">
-        <v>-0.02614074034919262</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01056593963225701</v>
+      </c>
+      <c r="G67">
+        <v>0.005832314094264698</v>
+      </c>
+      <c r="H67">
+        <v>0.007364887362699051</v>
+      </c>
+      <c r="I67">
+        <v>0.1429051456350184</v>
+      </c>
+      <c r="J67">
+        <v>-0.06466362480987094</v>
+      </c>
+      <c r="K67">
+        <v>0.07054714031527798</v>
+      </c>
+      <c r="L67">
+        <v>0.009154009341077306</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>-0.06893041343789319</v>
+        <v>0.1021935150393222</v>
       </c>
       <c r="C68">
-        <v>-0.2557393561258477</v>
+        <v>0.2742255328611642</v>
       </c>
       <c r="D68">
-        <v>0.05345789629289073</v>
+        <v>-0.040042281023103</v>
       </c>
       <c r="E68">
-        <v>-0.03853653318125732</v>
+        <v>0.03206616642529055</v>
       </c>
       <c r="F68">
-        <v>-0.04071866382392323</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.0006111413483346638</v>
+      </c>
+      <c r="G68">
+        <v>-0.009627863497953909</v>
+      </c>
+      <c r="H68">
+        <v>0.02461237752493172</v>
+      </c>
+      <c r="I68">
+        <v>-0.02296373847158384</v>
+      </c>
+      <c r="J68">
+        <v>0.05962112084347577</v>
+      </c>
+      <c r="K68">
+        <v>0.02108987227183351</v>
+      </c>
+      <c r="L68">
+        <v>-0.04142830832383414</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>-0.06526729858378609</v>
+        <v>0.05405604008845001</v>
       </c>
       <c r="C69">
-        <v>0.02498978795647197</v>
+        <v>-0.02732748306483435</v>
       </c>
       <c r="D69">
-        <v>-0.00370744473884736</v>
+        <v>-0.01462844536886944</v>
       </c>
       <c r="E69">
-        <v>-0.01255795806160954</v>
+        <v>-0.004402223339698393</v>
       </c>
       <c r="F69">
-        <v>-0.01196281047340052</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.00104999888093071</v>
+      </c>
+      <c r="G69">
+        <v>0.02862918905263821</v>
+      </c>
+      <c r="H69">
+        <v>0.04584388329692927</v>
+      </c>
+      <c r="I69">
+        <v>0.0009311041792329064</v>
+      </c>
+      <c r="J69">
+        <v>0.003683151326408697</v>
+      </c>
+      <c r="K69">
+        <v>-0.01975576771804458</v>
+      </c>
+      <c r="L69">
+        <v>-0.006235397140663458</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B70">
-        <v>-0.01943903464087532</v>
+        <v>0.04311138209707855</v>
       </c>
       <c r="C70">
-        <v>-0.006410460446541272</v>
+        <v>-0.02039242729300776</v>
       </c>
       <c r="D70">
-        <v>0.00288538580247188</v>
+        <v>0.03109482661199972</v>
       </c>
       <c r="E70">
-        <v>0.01133720393150969</v>
+        <v>-0.01883259484531375</v>
       </c>
       <c r="F70">
-        <v>-0.004492576661721672</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>-0.037490721993883</v>
+      </c>
+      <c r="G70">
+        <v>0.03751368993308018</v>
+      </c>
+      <c r="H70">
+        <v>-0.02090493132043857</v>
+      </c>
+      <c r="I70">
+        <v>0.02697914202864193</v>
+      </c>
+      <c r="J70">
+        <v>-0.07375242448986744</v>
+      </c>
+      <c r="K70">
+        <v>0.1158798898616398</v>
+      </c>
+      <c r="L70">
+        <v>-0.04821864304003225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>-0.07282159769739324</v>
+        <v>0.1145456511600257</v>
       </c>
       <c r="C71">
-        <v>-0.270572546092843</v>
+        <v>0.2861408508546597</v>
       </c>
       <c r="D71">
-        <v>0.04966704092643693</v>
+        <v>-0.02060608026379571</v>
       </c>
       <c r="E71">
-        <v>-0.07151214894077489</v>
+        <v>0.04874279036165808</v>
       </c>
       <c r="F71">
-        <v>-0.02420524463882315</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.007481356728195266</v>
+      </c>
+      <c r="G71">
+        <v>-0.002889119526046203</v>
+      </c>
+      <c r="H71">
+        <v>0.01159175254365296</v>
+      </c>
+      <c r="I71">
+        <v>-0.02018701549521999</v>
+      </c>
+      <c r="J71">
+        <v>0.008059546932179577</v>
+      </c>
+      <c r="K71">
+        <v>0.008913525012331711</v>
+      </c>
+      <c r="L71">
+        <v>0.004426032455986811</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>-0.142633655440901</v>
+        <v>0.1332932510859112</v>
       </c>
       <c r="C72">
-        <v>-0.04362825589723516</v>
+        <v>-0.01152517725042818</v>
       </c>
       <c r="D72">
-        <v>-0.06108047485722672</v>
+        <v>-0.05033590132389607</v>
       </c>
       <c r="E72">
-        <v>0.2421858887936809</v>
+        <v>-0.1728390358080949</v>
       </c>
       <c r="F72">
-        <v>-0.01818338519286419</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.07104216061336108</v>
+      </c>
+      <c r="G72">
+        <v>0.09171641489494663</v>
+      </c>
+      <c r="H72">
+        <v>0.01951582146967559</v>
+      </c>
+      <c r="I72">
+        <v>0.05794194321176351</v>
+      </c>
+      <c r="J72">
+        <v>0.1365451639497178</v>
+      </c>
+      <c r="K72">
+        <v>-0.01506170876217788</v>
+      </c>
+      <c r="L72">
+        <v>0.1218198153253487</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>-0.2516944686130634</v>
+        <v>0.2384990013119292</v>
       </c>
       <c r="C73">
-        <v>0.0815344190337869</v>
+        <v>-0.1224246625004862</v>
       </c>
       <c r="D73">
-        <v>-0.1855791167189158</v>
+        <v>0.2615324438523339</v>
       </c>
       <c r="E73">
-        <v>-0.122933006724168</v>
+        <v>-0.03469906993956209</v>
       </c>
       <c r="F73">
-        <v>0.07363541636998107</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.1325348078602573</v>
+      </c>
+      <c r="G73">
+        <v>-0.2811718451188053</v>
+      </c>
+      <c r="H73">
+        <v>-0.2901647406225234</v>
+      </c>
+      <c r="I73">
+        <v>0.1217328606456816</v>
+      </c>
+      <c r="J73">
+        <v>0.005301916850059906</v>
+      </c>
+      <c r="K73">
+        <v>-0.4940802214267118</v>
+      </c>
+      <c r="L73">
+        <v>0.1284172349905061</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>-0.08611708809319328</v>
+        <v>0.08926144608738867</v>
       </c>
       <c r="C74">
-        <v>0.001271940954665931</v>
+        <v>-0.05159400520288941</v>
       </c>
       <c r="D74">
-        <v>-0.0608190481601508</v>
+        <v>0.03341929494022902</v>
       </c>
       <c r="E74">
-        <v>-0.008165114004332025</v>
+        <v>-0.02281419293358383</v>
       </c>
       <c r="F74">
-        <v>-0.001108372543049307</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.02099094871011226</v>
+      </c>
+      <c r="G74">
+        <v>-0.03333750895198779</v>
+      </c>
+      <c r="H74">
+        <v>0.1445137065215412</v>
+      </c>
+      <c r="I74">
+        <v>0.01625867249038171</v>
+      </c>
+      <c r="J74">
+        <v>0.02302651361048925</v>
+      </c>
+      <c r="K74">
+        <v>-0.06065810338512632</v>
+      </c>
+      <c r="L74">
+        <v>0.01699864815323657</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>-0.1154115446116164</v>
+        <v>0.09727171302074458</v>
       </c>
       <c r="C75">
-        <v>0.007011176920862737</v>
+        <v>-0.04358620706500636</v>
       </c>
       <c r="D75">
-        <v>0.01270783005764047</v>
+        <v>-0.006152852636309592</v>
       </c>
       <c r="E75">
-        <v>-0.01964914090562104</v>
+        <v>-0.0138706814471409</v>
       </c>
       <c r="F75">
-        <v>0.05062893904514733</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.06522219505516533</v>
+      </c>
+      <c r="G75">
+        <v>0.008688267475547433</v>
+      </c>
+      <c r="H75">
+        <v>0.1257833500382597</v>
+      </c>
+      <c r="I75">
+        <v>0.03650710489354962</v>
+      </c>
+      <c r="J75">
+        <v>0.03173432420080326</v>
+      </c>
+      <c r="K75">
+        <v>0.0006904013829473497</v>
+      </c>
+      <c r="L75">
+        <v>0.0139727426208096</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>-0.1311044911787536</v>
+        <v>0.1131098818056948</v>
       </c>
       <c r="C76">
-        <v>0.0006922302164838123</v>
+        <v>-0.06044796156884875</v>
       </c>
       <c r="D76">
-        <v>-0.06244243101273041</v>
+        <v>0.05053799668323777</v>
       </c>
       <c r="E76">
-        <v>-0.01564118087417386</v>
+        <v>-0.01380942195630259</v>
       </c>
       <c r="F76">
-        <v>0.02486444311157986</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.0001781760928304246</v>
+      </c>
+      <c r="G76">
+        <v>-0.02453579003816549</v>
+      </c>
+      <c r="H76">
+        <v>0.2285145196155172</v>
+      </c>
+      <c r="I76">
+        <v>0.06856009776470787</v>
+      </c>
+      <c r="J76">
+        <v>0.04266419533582896</v>
+      </c>
+      <c r="K76">
+        <v>-0.006952762391908304</v>
+      </c>
+      <c r="L76">
+        <v>0.003733308541213275</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>-0.1084699739757671</v>
+        <v>0.07986343750522168</v>
       </c>
       <c r="C77">
-        <v>0.03386533067572049</v>
+        <v>-0.02039218083425343</v>
       </c>
       <c r="D77">
-        <v>0.07489800580986364</v>
+        <v>-0.07745882127212649</v>
       </c>
       <c r="E77">
-        <v>-0.002239053894318142</v>
+        <v>0.1134807099387401</v>
       </c>
       <c r="F77">
-        <v>-0.282311974647931</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.08800048880851026</v>
+      </c>
+      <c r="G77">
+        <v>0.6475697396978947</v>
+      </c>
+      <c r="H77">
+        <v>-0.2981999092402482</v>
+      </c>
+      <c r="I77">
+        <v>0.509513907410161</v>
+      </c>
+      <c r="J77">
+        <v>-0.05157448365220733</v>
+      </c>
+      <c r="K77">
+        <v>-0.1101339823874091</v>
+      </c>
+      <c r="L77">
+        <v>0.01077796992771748</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>-0.1260527121501659</v>
+        <v>0.1610064054478714</v>
       </c>
       <c r="C78">
-        <v>0.07287623396713799</v>
+        <v>-0.08499476102254903</v>
       </c>
       <c r="D78">
-        <v>-0.04471657675941737</v>
+        <v>-0.04393645266933809</v>
       </c>
       <c r="E78">
-        <v>-0.02495366193737839</v>
+        <v>0.139204772879386</v>
       </c>
       <c r="F78">
-        <v>-0.1074788325962875</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.1565078358764262</v>
+      </c>
+      <c r="G78">
+        <v>-0.03397985402700279</v>
+      </c>
+      <c r="H78">
+        <v>-0.08278262356394112</v>
+      </c>
+      <c r="I78">
+        <v>-0.1363017890222492</v>
+      </c>
+      <c r="J78">
+        <v>-0.1090975541508431</v>
+      </c>
+      <c r="K78">
+        <v>0.1726142592453538</v>
+      </c>
+      <c r="L78">
+        <v>0.4589703990392686</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>-0.1355728017946276</v>
+        <v>0.1349149255071073</v>
       </c>
       <c r="C79">
-        <v>0.01730163033512499</v>
+        <v>-0.05494366284456519</v>
       </c>
       <c r="D79">
-        <v>-0.07663525664720656</v>
+        <v>0.04060250396936291</v>
       </c>
       <c r="E79">
-        <v>-0.004235798857025053</v>
+        <v>-0.01850999988688221</v>
       </c>
       <c r="F79">
-        <v>0.06752449003195324</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>0.02434787606745761</v>
+      </c>
+      <c r="G79">
+        <v>0.0106538313996523</v>
+      </c>
+      <c r="H79">
+        <v>0.1882513535585856</v>
+      </c>
+      <c r="I79">
+        <v>0.08734859712930529</v>
+      </c>
+      <c r="J79">
+        <v>0.05878152399666672</v>
+      </c>
+      <c r="K79">
+        <v>0.02132110731992833</v>
+      </c>
+      <c r="L79">
+        <v>0.02615193952583401</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>-0.04446837790936468</v>
+        <v>0.0468849215674064</v>
       </c>
       <c r="C80">
-        <v>0.0368459344083235</v>
+        <v>-0.02171876707324495</v>
       </c>
       <c r="D80">
-        <v>-0.01325510266268591</v>
+        <v>0.05620936445170894</v>
       </c>
       <c r="E80">
-        <v>-0.006014810321807692</v>
+        <v>-0.02234608542137488</v>
       </c>
       <c r="F80">
-        <v>-0.01392657567944223</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.001394715330834667</v>
+      </c>
+      <c r="G80">
+        <v>0.02565212926589538</v>
+      </c>
+      <c r="H80">
+        <v>-0.01882884583725145</v>
+      </c>
+      <c r="I80">
+        <v>-0.0987541416343107</v>
+      </c>
+      <c r="J80">
+        <v>-0.03103629815459924</v>
+      </c>
+      <c r="K80">
+        <v>0.01243878307793565</v>
+      </c>
+      <c r="L80">
+        <v>0.008674714837553839</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>-0.1357728298109382</v>
+        <v>0.1307586239392882</v>
       </c>
       <c r="C81">
-        <v>0.02617015054939661</v>
+        <v>-0.04632795410318797</v>
       </c>
       <c r="D81">
-        <v>-0.07713287048299899</v>
+        <v>0.02910757820421135</v>
       </c>
       <c r="E81">
-        <v>-0.02890679681799585</v>
+        <v>-0.008776178997085266</v>
       </c>
       <c r="F81">
-        <v>0.02706405073971362</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.03323659213282493</v>
+      </c>
+      <c r="G81">
+        <v>0.003350817184814036</v>
+      </c>
+      <c r="H81">
+        <v>0.1697034512818721</v>
+      </c>
+      <c r="I81">
+        <v>0.03507491292070423</v>
+      </c>
+      <c r="J81">
+        <v>-0.01101431069398642</v>
+      </c>
+      <c r="K81">
+        <v>-0.02527859510058406</v>
+      </c>
+      <c r="L81">
+        <v>-0.06712216831413315</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>-0.114490019123521</v>
+        <v>0.1175794576860333</v>
       </c>
       <c r="C82">
-        <v>0.02124337145427438</v>
+        <v>-0.04317270994846855</v>
       </c>
       <c r="D82">
-        <v>-0.0343745200114069</v>
+        <v>0.03656020491687536</v>
       </c>
       <c r="E82">
-        <v>-0.03846223056765589</v>
+        <v>-0.02636359108426838</v>
       </c>
       <c r="F82">
-        <v>0.1075304324361175</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.0295924249717396</v>
+      </c>
+      <c r="G82">
+        <v>-0.01572677979999116</v>
+      </c>
+      <c r="H82">
+        <v>0.2683249313522145</v>
+      </c>
+      <c r="I82">
+        <v>0.0652451341806352</v>
+      </c>
+      <c r="J82">
+        <v>-0.03716549107083739</v>
+      </c>
+      <c r="K82">
+        <v>-0.00326658403764288</v>
+      </c>
+      <c r="L82">
+        <v>-0.00667635800643685</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>-0.05565376321847078</v>
+        <v>0.07650452807297586</v>
       </c>
       <c r="C83">
-        <v>0.02134538773884919</v>
+        <v>-0.04275847913236903</v>
       </c>
       <c r="D83">
-        <v>0.08651310870798701</v>
+        <v>0.002542919140000717</v>
       </c>
       <c r="E83">
-        <v>-0.01832451013084365</v>
+        <v>0.01294734965647109</v>
       </c>
       <c r="F83">
-        <v>0.07318450290036023</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.1014205897593901</v>
+      </c>
+      <c r="G83">
+        <v>0.02971749892493796</v>
+      </c>
+      <c r="H83">
+        <v>-0.03519333597298208</v>
+      </c>
+      <c r="I83">
+        <v>-0.06520470042085041</v>
+      </c>
+      <c r="J83">
+        <v>-0.04441896214456995</v>
+      </c>
+      <c r="K83">
+        <v>0.04859312491458367</v>
+      </c>
+      <c r="L83">
+        <v>0.02613356247039942</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>-0.05506857586646106</v>
+        <v>0.04179301780646964</v>
       </c>
       <c r="C84">
-        <v>0.01931586064678735</v>
+        <v>0.02155222865507935</v>
       </c>
       <c r="D84">
-        <v>-0.01702972520830276</v>
+        <v>-0.03857711481878275</v>
       </c>
       <c r="E84">
-        <v>0.01661061504138682</v>
+        <v>-0.003683723698437972</v>
       </c>
       <c r="F84">
-        <v>0.001003747799359229</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>0.02558006744931995</v>
+      </c>
+      <c r="G84">
+        <v>-0.08887798833972869</v>
+      </c>
+      <c r="H84">
+        <v>-0.1468677965510344</v>
+      </c>
+      <c r="I84">
+        <v>-0.1848457262977522</v>
+      </c>
+      <c r="J84">
+        <v>-0.2043365428336134</v>
+      </c>
+      <c r="K84">
+        <v>0.2374410873688034</v>
+      </c>
+      <c r="L84">
+        <v>0.2557052585253765</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>-0.09819953301908779</v>
+        <v>0.1128306712625304</v>
       </c>
       <c r="C85">
-        <v>0.04392114557346745</v>
+        <v>-0.04674485589559377</v>
       </c>
       <c r="D85">
-        <v>-0.01932777995880567</v>
+        <v>0.04226309006270516</v>
       </c>
       <c r="E85">
-        <v>-0.0506955779104044</v>
+        <v>0.02346309466994634</v>
       </c>
       <c r="F85">
-        <v>0.03030754886201802</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.01137346673040319</v>
+      </c>
+      <c r="G85">
+        <v>0.01213211713777666</v>
+      </c>
+      <c r="H85">
+        <v>0.1871328579632661</v>
+      </c>
+      <c r="I85">
+        <v>0.05318465641803103</v>
+      </c>
+      <c r="J85">
+        <v>0.04408852474198215</v>
+      </c>
+      <c r="K85">
+        <v>0.01737980457816066</v>
+      </c>
+      <c r="L85">
+        <v>0.0339050012364416</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>-0.06479347554527493</v>
+        <v>0.07223813702778803</v>
       </c>
       <c r="C86">
-        <v>0.07315952838869594</v>
+        <v>-0.02212715672726761</v>
       </c>
       <c r="D86">
-        <v>0.0005046842526520485</v>
+        <v>-0.0212093777855416</v>
       </c>
       <c r="E86">
-        <v>-0.006461550999084903</v>
+        <v>0.0472732336709933</v>
       </c>
       <c r="F86">
-        <v>-0.02599897827643773</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.02352753245774566</v>
+      </c>
+      <c r="G86">
+        <v>-0.01949045974384916</v>
+      </c>
+      <c r="H86">
+        <v>-0.08163883354622538</v>
+      </c>
+      <c r="I86">
+        <v>-0.07004659775440579</v>
+      </c>
+      <c r="J86">
+        <v>-0.2040308744295524</v>
+      </c>
+      <c r="K86">
+        <v>0.2774513140779957</v>
+      </c>
+      <c r="L86">
+        <v>0.3195093086902142</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>-0.104990755055655</v>
+        <v>0.1159151384929424</v>
       </c>
       <c r="C87">
-        <v>0.06147169819808591</v>
+        <v>-0.06270177071106649</v>
       </c>
       <c r="D87">
-        <v>-0.04326051511030254</v>
+        <v>-0.01451542456453683</v>
       </c>
       <c r="E87">
-        <v>-0.01593840208524645</v>
+        <v>0.04471363111412362</v>
       </c>
       <c r="F87">
-        <v>-0.1771261735371688</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.1432771792160008</v>
+      </c>
+      <c r="G87">
+        <v>0.1520354666964496</v>
+      </c>
+      <c r="H87">
+        <v>-0.1416113878552939</v>
+      </c>
+      <c r="I87">
+        <v>0.07115860084081622</v>
+      </c>
+      <c r="J87">
+        <v>-0.05425962080919817</v>
+      </c>
+      <c r="K87">
+        <v>0.008208204975491287</v>
+      </c>
+      <c r="L87">
+        <v>-0.04344241631937375</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>-0.05836792418480544</v>
+        <v>0.06353780521328535</v>
       </c>
       <c r="C88">
-        <v>0.03382097419470906</v>
+        <v>-0.04881386821887652</v>
       </c>
       <c r="D88">
-        <v>-0.02683016678278789</v>
+        <v>0.03664292856491241</v>
       </c>
       <c r="E88">
-        <v>-0.01441854483203648</v>
+        <v>-0.0009570263293202733</v>
       </c>
       <c r="F88">
-        <v>-0.0084748454813969</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.02398272936674731</v>
+      </c>
+      <c r="G88">
+        <v>0.02270382138380376</v>
+      </c>
+      <c r="H88">
+        <v>0.01730098705171031</v>
+      </c>
+      <c r="I88">
+        <v>-0.0552625075851934</v>
+      </c>
+      <c r="J88">
+        <v>-0.035750503228229</v>
+      </c>
+      <c r="K88">
+        <v>-0.01317354046393184</v>
+      </c>
+      <c r="L88">
+        <v>-0.02964968358313275</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>-0.1213194387865226</v>
+        <v>0.1904432798815394</v>
       </c>
       <c r="C89">
-        <v>-0.3083426281635662</v>
+        <v>0.366928114545572</v>
       </c>
       <c r="D89">
-        <v>0.07251996059151183</v>
+        <v>0.001664338723145538</v>
       </c>
       <c r="E89">
-        <v>-0.1203734058918825</v>
+        <v>0.1003666536809786</v>
       </c>
       <c r="F89">
-        <v>-0.07162169505883344</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.01823911962486017</v>
+      </c>
+      <c r="G89">
+        <v>-0.004265714642769665</v>
+      </c>
+      <c r="H89">
+        <v>0.01328815474811584</v>
+      </c>
+      <c r="I89">
+        <v>-0.0442727761514134</v>
+      </c>
+      <c r="J89">
+        <v>-0.04379044548328505</v>
+      </c>
+      <c r="K89">
+        <v>-0.07832276164234619</v>
+      </c>
+      <c r="L89">
+        <v>-0.03911374708477748</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>-0.09921288103497598</v>
+        <v>0.1309423731935159</v>
       </c>
       <c r="C90">
-        <v>-0.2696217512976432</v>
+        <v>0.2711468506819783</v>
       </c>
       <c r="D90">
-        <v>0.05765539075702567</v>
+        <v>-0.01908406648598896</v>
       </c>
       <c r="E90">
-        <v>-0.05587764694739859</v>
+        <v>0.03925903606176514</v>
       </c>
       <c r="F90">
-        <v>-0.07374580993813046</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.002786525374138777</v>
+      </c>
+      <c r="G90">
+        <v>0.02420870930085537</v>
+      </c>
+      <c r="H90">
+        <v>-0.02860852021308819</v>
+      </c>
+      <c r="I90">
+        <v>-0.02341628285948735</v>
+      </c>
+      <c r="J90">
+        <v>-0.01084711033615532</v>
+      </c>
+      <c r="K90">
+        <v>-0.02823133025093157</v>
+      </c>
+      <c r="L90">
+        <v>-0.02525278808769604</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>-0.09569573670135029</v>
+        <v>0.0822525371927184</v>
       </c>
       <c r="C91">
-        <v>0.01519362158424892</v>
+        <v>-0.04777375190542294</v>
       </c>
       <c r="D91">
-        <v>-0.01569610700149015</v>
+        <v>0.003617938780129467</v>
       </c>
       <c r="E91">
-        <v>-0.009777310676109128</v>
+        <v>-0.005169480040529321</v>
       </c>
       <c r="F91">
-        <v>0.01185018866806073</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.0295330066160359</v>
+      </c>
+      <c r="G91">
+        <v>-0.01308455799798945</v>
+      </c>
+      <c r="H91">
+        <v>0.09398565042149511</v>
+      </c>
+      <c r="I91">
+        <v>0.02920646744469165</v>
+      </c>
+      <c r="J91">
+        <v>0.02870625799482085</v>
+      </c>
+      <c r="K91">
+        <v>-0.02806447390014222</v>
+      </c>
+      <c r="L91">
+        <v>-0.002160197231289164</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>-0.08399822504781405</v>
+        <v>0.1334518026032239</v>
       </c>
       <c r="C92">
-        <v>-0.3363302971396036</v>
+        <v>0.3246586381400922</v>
       </c>
       <c r="D92">
-        <v>0.0336941791043608</v>
+        <v>-0.01131216316687739</v>
       </c>
       <c r="E92">
-        <v>-0.09002910166089691</v>
+        <v>0.05240898132685143</v>
       </c>
       <c r="F92">
-        <v>-0.02730570671509769</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.01531919889118853</v>
+      </c>
+      <c r="G92">
+        <v>-0.02662709329669156</v>
+      </c>
+      <c r="H92">
+        <v>0.03760650494988684</v>
+      </c>
+      <c r="I92">
+        <v>-0.03477342728794876</v>
+      </c>
+      <c r="J92">
+        <v>-0.02436201054892784</v>
+      </c>
+      <c r="K92">
+        <v>-0.03701839773877795</v>
+      </c>
+      <c r="L92">
+        <v>-0.01010888171581926</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>-0.0841000625203023</v>
+        <v>0.1357535220181993</v>
       </c>
       <c r="C93">
-        <v>-0.271678101380292</v>
+        <v>0.3046911421430281</v>
       </c>
       <c r="D93">
-        <v>0.02212642107439287</v>
+        <v>-0.0008512041013093368</v>
       </c>
       <c r="E93">
-        <v>-0.05128106176142352</v>
+        <v>0.02027583745561399</v>
       </c>
       <c r="F93">
-        <v>-0.037396524818058</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.007374790684582143</v>
+      </c>
+      <c r="G93">
+        <v>-0.01017471868720177</v>
+      </c>
+      <c r="H93">
+        <v>-0.01674221559685865</v>
+      </c>
+      <c r="I93">
+        <v>-0.006842687243124911</v>
+      </c>
+      <c r="J93">
+        <v>-0.01213599763099144</v>
+      </c>
+      <c r="K93">
+        <v>0.03258730958832658</v>
+      </c>
+      <c r="L93">
+        <v>-0.02141053605172696</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>-0.1089393946545084</v>
+        <v>0.1113666059673527</v>
       </c>
       <c r="C94">
-        <v>0.06317585680991455</v>
+        <v>-0.07292298525838536</v>
       </c>
       <c r="D94">
-        <v>-0.0131451738790481</v>
+        <v>0.01179696718004687</v>
       </c>
       <c r="E94">
-        <v>-0.02644933910671528</v>
+        <v>0.01886575750671659</v>
       </c>
       <c r="F94">
-        <v>0.02099619031182683</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.04324398768774675</v>
+      </c>
+      <c r="G94">
+        <v>-0.03897709948473507</v>
+      </c>
+      <c r="H94">
+        <v>0.1257859012621065</v>
+      </c>
+      <c r="I94">
+        <v>0.01542770661557833</v>
+      </c>
+      <c r="J94">
+        <v>0.03945239241843661</v>
+      </c>
+      <c r="K94">
+        <v>-0.0147258002210191</v>
+      </c>
+      <c r="L94">
+        <v>0.001845773975527286</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>-0.1168283506769294</v>
+        <v>0.1354180687209035</v>
       </c>
       <c r="C95">
-        <v>0.09581933137934578</v>
+        <v>-0.06276131026964663</v>
       </c>
       <c r="D95">
-        <v>-0.07754677053526117</v>
+        <v>0.02195071360536318</v>
       </c>
       <c r="E95">
-        <v>-0.0789431420561427</v>
+        <v>0.07409904340672767</v>
       </c>
       <c r="F95">
-        <v>-0.00524316164662746</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.07475571180106651</v>
+      </c>
+      <c r="G95">
+        <v>-0.002648423420863712</v>
+      </c>
+      <c r="H95">
+        <v>-0.1632829630464638</v>
+      </c>
+      <c r="I95">
+        <v>-0.09212235927705341</v>
+      </c>
+      <c r="J95">
+        <v>-0.04384214225007101</v>
+      </c>
+      <c r="K95">
+        <v>-0.02574075569029248</v>
+      </c>
+      <c r="L95">
+        <v>0.0679429343462483</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +4345,142 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>-0.2801825943359949</v>
+        <v>0.1893082929005535</v>
       </c>
       <c r="C97">
-        <v>-0.1372083989304254</v>
+        <v>0.01060618009314667</v>
       </c>
       <c r="D97">
-        <v>-0.02903546102940015</v>
+        <v>-0.4901355400549343</v>
       </c>
       <c r="E97">
-        <v>0.8783559643993641</v>
+        <v>-0.7906019360150751</v>
       </c>
       <c r="F97">
-        <v>0.01109373962020384</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>0.1143490174452628</v>
+      </c>
+      <c r="G97">
+        <v>0.01477676293318391</v>
+      </c>
+      <c r="H97">
+        <v>-0.07412634414764596</v>
+      </c>
+      <c r="I97">
+        <v>-0.05654114972936775</v>
+      </c>
+      <c r="J97">
+        <v>-0.05639204004617694</v>
+      </c>
+      <c r="K97">
+        <v>-0.07849872332201717</v>
+      </c>
+      <c r="L97">
+        <v>0.006152699473780622</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>-0.2890572424004699</v>
+        <v>0.2780997160348256</v>
       </c>
       <c r="C98">
-        <v>0.08094993432894591</v>
+        <v>-0.1151687504879342</v>
       </c>
       <c r="D98">
-        <v>-0.01249572617354045</v>
+        <v>0.1595193224013862</v>
       </c>
       <c r="E98">
-        <v>-0.1169282797153732</v>
+        <v>-0.1153632978225825</v>
       </c>
       <c r="F98">
-        <v>0.4743785962484158</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.3188334175006905</v>
+      </c>
+      <c r="G98">
+        <v>-0.209984496004836</v>
+      </c>
+      <c r="H98">
+        <v>-0.2827250053918404</v>
+      </c>
+      <c r="I98">
+        <v>0.1137849671308449</v>
+      </c>
+      <c r="J98">
+        <v>-0.1426982334349466</v>
+      </c>
+      <c r="K98">
+        <v>0.4158275355095815</v>
+      </c>
+      <c r="L98">
+        <v>-0.4479028278168818</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>-0.2250540547462067</v>
+        <v>0.1377156906903327</v>
       </c>
       <c r="C99">
-        <v>0.1577454861087164</v>
+        <v>-0.1008636378991669</v>
       </c>
       <c r="D99">
-        <v>0.815719885119966</v>
+        <v>-0.2922141041987936</v>
       </c>
       <c r="E99">
-        <v>0.01129815313347149</v>
+        <v>0.1099095499085861</v>
       </c>
       <c r="F99">
-        <v>0.2999998457163678</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>-0.7557314815924174</v>
+      </c>
+      <c r="G99">
+        <v>0.2633860091075806</v>
+      </c>
+      <c r="H99">
+        <v>0.08663016504346621</v>
+      </c>
+      <c r="I99">
+        <v>-0.06042584147434336</v>
+      </c>
+      <c r="J99">
+        <v>-0.005503127396004885</v>
+      </c>
+      <c r="K99">
+        <v>0.04735008722439601</v>
+      </c>
+      <c r="L99">
+        <v>0.1921793743087827</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,30 +4497,66 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>-0.04829488646614472</v>
+        <v>0.04755266025407061</v>
       </c>
       <c r="C101">
-        <v>0.002834897519298564</v>
+        <v>-0.01811550564238164</v>
       </c>
       <c r="D101">
-        <v>-0.01902120333043317</v>
+        <v>0.007573381092289487</v>
       </c>
       <c r="E101">
-        <v>-0.01197746986730593</v>
+        <v>0.02319219621915646</v>
       </c>
       <c r="F101">
-        <v>-0.03726377058481999</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.04234874496939989</v>
+      </c>
+      <c r="G101">
+        <v>0.02414761521519949</v>
+      </c>
+      <c r="H101">
+        <v>0.04623347000333981</v>
+      </c>
+      <c r="I101">
+        <v>-0.04879500270857171</v>
+      </c>
+      <c r="J101">
+        <v>-0.00192895516461077</v>
+      </c>
+      <c r="K101">
+        <v>0.02798968871794219</v>
+      </c>
+      <c r="L101">
+        <v>-0.01036384614383619</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2737,10 +4573,28 @@
       <c r="F102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +4611,28 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4647,24 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
